--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Igf1-Igf1r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Igf1-Igf1r.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.838602000000001</v>
+        <v>0.9432543333333333</v>
       </c>
       <c r="H2">
-        <v>14.515806</v>
+        <v>2.829763</v>
       </c>
       <c r="I2">
-        <v>0.04159701547454875</v>
+        <v>0.00840968845628655</v>
       </c>
       <c r="J2">
-        <v>0.04159701547454875</v>
+        <v>0.008409688456286549</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>29.57110033333333</v>
+        <v>9.084137666666667</v>
       </c>
       <c r="N2">
-        <v>88.713301</v>
+        <v>27.252413</v>
       </c>
       <c r="O2">
-        <v>0.5311523066901919</v>
+        <v>0.2765376761551382</v>
       </c>
       <c r="P2">
-        <v>0.5311523066901919</v>
+        <v>0.2765376761551382</v>
       </c>
       <c r="Q2">
-        <v>143.0827852150674</v>
+        <v>8.568652218679889</v>
       </c>
       <c r="R2">
-        <v>1287.745066935606</v>
+        <v>77.117869968119</v>
       </c>
       <c r="S2">
-        <v>0.02209435072073417</v>
+        <v>0.002325595702890174</v>
       </c>
       <c r="T2">
-        <v>0.02209435072073417</v>
+        <v>0.002325595702890174</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.838602000000001</v>
+        <v>0.9432543333333333</v>
       </c>
       <c r="H3">
-        <v>14.515806</v>
+        <v>2.829763</v>
       </c>
       <c r="I3">
-        <v>0.04159701547454875</v>
+        <v>0.00840968845628655</v>
       </c>
       <c r="J3">
-        <v>0.04159701547454875</v>
+        <v>0.008409688456286549</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>36.541011</v>
       </c>
       <c r="O3">
-        <v>0.2187816490048282</v>
+        <v>0.3707916163717078</v>
       </c>
       <c r="P3">
-        <v>0.2187816490048282</v>
+        <v>0.3707916163717078</v>
       </c>
       <c r="Q3">
-        <v>58.93580296887401</v>
+        <v>11.48915565671033</v>
       </c>
       <c r="R3">
-        <v>530.4222267198661</v>
+        <v>103.402400910393</v>
       </c>
       <c r="S3">
-        <v>0.009100663639201131</v>
+        <v>0.003118241975888982</v>
       </c>
       <c r="T3">
-        <v>0.009100663639201131</v>
+        <v>0.003118241975888982</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.838602000000001</v>
+        <v>0.9432543333333333</v>
       </c>
       <c r="H4">
-        <v>14.515806</v>
+        <v>2.829763</v>
       </c>
       <c r="I4">
-        <v>0.04159701547454875</v>
+        <v>0.00840968845628655</v>
       </c>
       <c r="J4">
-        <v>0.04159701547454875</v>
+        <v>0.008409688456286549</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.92204833333333</v>
+        <v>11.58507333333333</v>
       </c>
       <c r="N4">
-        <v>41.76614499999999</v>
+        <v>34.75522</v>
       </c>
       <c r="O4">
-        <v>0.2500660443049799</v>
+        <v>0.3526707074731541</v>
       </c>
       <c r="P4">
-        <v>0.2500660443049799</v>
+        <v>0.3526707074731541</v>
       </c>
       <c r="Q4">
-        <v>67.36325090976334</v>
+        <v>10.92767062365111</v>
       </c>
       <c r="R4">
-        <v>606.2692581878699</v>
+        <v>98.34903561285999</v>
       </c>
       <c r="S4">
-        <v>0.01040200111461344</v>
+        <v>0.002965850777507395</v>
       </c>
       <c r="T4">
-        <v>0.01040200111461344</v>
+        <v>0.002965850777507394</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>318.722283</v>
       </c>
       <c r="I5">
-        <v>0.9133420313026024</v>
+        <v>0.9472012688364344</v>
       </c>
       <c r="J5">
-        <v>0.9133420313026024</v>
+        <v>0.9472012688364343</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>29.57110033333333</v>
+        <v>9.084137666666667</v>
       </c>
       <c r="N5">
-        <v>88.713301</v>
+        <v>27.252413</v>
       </c>
       <c r="O5">
-        <v>0.5311523066901919</v>
+        <v>0.2765376761551382</v>
       </c>
       <c r="P5">
-        <v>0.5311523066901919</v>
+        <v>0.2765376761551382</v>
       </c>
       <c r="Q5">
-        <v>3141.656203020687</v>
+        <v>965.1056987354311</v>
       </c>
       <c r="R5">
-        <v>28274.90582718618</v>
+        <v>8685.951288618879</v>
       </c>
       <c r="S5">
-        <v>0.4851237267234827</v>
+        <v>0.2619368377352259</v>
       </c>
       <c r="T5">
-        <v>0.4851237267234827</v>
+        <v>0.2619368377352259</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>318.722283</v>
       </c>
       <c r="I6">
-        <v>0.9133420313026024</v>
+        <v>0.9472012688364344</v>
       </c>
       <c r="J6">
-        <v>0.9133420313026024</v>
+        <v>0.9472012688364343</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>36.541011</v>
       </c>
       <c r="O6">
-        <v>0.2187816490048282</v>
+        <v>0.3707916163717078</v>
       </c>
       <c r="P6">
-        <v>0.2187816490048282</v>
+        <v>0.3707916163717078</v>
       </c>
       <c r="Q6">
         <v>1294.048272116457</v>
@@ -818,10 +818,10 @@
         <v>11646.43444904811</v>
       </c>
       <c r="S6">
-        <v>0.1998224757138028</v>
+        <v>0.3512142895011941</v>
       </c>
       <c r="T6">
-        <v>0.1998224757138028</v>
+        <v>0.351214289501194</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>318.722283</v>
       </c>
       <c r="I7">
-        <v>0.9133420313026024</v>
+        <v>0.9472012688364344</v>
       </c>
       <c r="J7">
-        <v>0.9133420313026024</v>
+        <v>0.9472012688364343</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.92204833333333</v>
+        <v>11.58507333333333</v>
       </c>
       <c r="N7">
-        <v>41.76614499999999</v>
+        <v>34.75522</v>
       </c>
       <c r="O7">
-        <v>0.2500660443049799</v>
+        <v>0.3526707074731541</v>
       </c>
       <c r="P7">
-        <v>0.2500660443049799</v>
+        <v>0.3526707074731541</v>
       </c>
       <c r="Q7">
-        <v>1479.089009612115</v>
+        <v>1230.80700717414</v>
       </c>
       <c r="R7">
-        <v>13311.80108650903</v>
+        <v>11077.26306456726</v>
       </c>
       <c r="S7">
-        <v>0.2283958288653169</v>
+        <v>0.3340501416000146</v>
       </c>
       <c r="T7">
-        <v>0.2283958288653169</v>
+        <v>0.3340501416000145</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.241530333333333</v>
+        <v>4.9788</v>
       </c>
       <c r="H8">
-        <v>15.724591</v>
+        <v>14.9364</v>
       </c>
       <c r="I8">
-        <v>0.04506095322284893</v>
+        <v>0.04438904270727917</v>
       </c>
       <c r="J8">
-        <v>0.04506095322284893</v>
+        <v>0.04438904270727916</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>29.57110033333333</v>
+        <v>9.084137666666667</v>
       </c>
       <c r="N8">
-        <v>88.713301</v>
+        <v>27.252413</v>
       </c>
       <c r="O8">
-        <v>0.5311523066901919</v>
+        <v>0.2765376761551382</v>
       </c>
       <c r="P8">
-        <v>0.5311523066901919</v>
+        <v>0.2765376761551382</v>
       </c>
       <c r="Q8">
-        <v>154.9978193872101</v>
+        <v>45.2281046148</v>
       </c>
       <c r="R8">
-        <v>1394.980374484891</v>
+        <v>407.0529415332</v>
       </c>
       <c r="S8">
-        <v>0.02393422924597505</v>
+        <v>0.01227524271702217</v>
       </c>
       <c r="T8">
-        <v>0.02393422924597505</v>
+        <v>0.01227524271702216</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.241530333333333</v>
+        <v>4.9788</v>
       </c>
       <c r="H9">
-        <v>15.724591</v>
+        <v>14.9364</v>
       </c>
       <c r="I9">
-        <v>0.04506095322284893</v>
+        <v>0.04438904270727917</v>
       </c>
       <c r="J9">
-        <v>0.04506095322284893</v>
+        <v>0.04438904270727916</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>36.541011</v>
       </c>
       <c r="O9">
-        <v>0.2187816490048282</v>
+        <v>0.3707916163717078</v>
       </c>
       <c r="P9">
-        <v>0.2187816490048282</v>
+        <v>0.3707916163717078</v>
       </c>
       <c r="Q9">
-        <v>63.84360585572234</v>
+        <v>60.6434618556</v>
       </c>
       <c r="R9">
-        <v>574.5924527015011</v>
+        <v>545.7911567004001</v>
       </c>
       <c r="S9">
-        <v>0.009858509651824318</v>
+        <v>0.01645908489462481</v>
       </c>
       <c r="T9">
-        <v>0.009858509651824318</v>
+        <v>0.01645908489462481</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.241530333333333</v>
+        <v>4.9788</v>
       </c>
       <c r="H10">
-        <v>15.724591</v>
+        <v>14.9364</v>
       </c>
       <c r="I10">
-        <v>0.04506095322284893</v>
+        <v>0.04438904270727917</v>
       </c>
       <c r="J10">
-        <v>0.04506095322284893</v>
+        <v>0.04438904270727916</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.92204833333333</v>
+        <v>11.58507333333333</v>
       </c>
       <c r="N10">
-        <v>41.76614499999999</v>
+        <v>34.75522</v>
       </c>
       <c r="O10">
-        <v>0.2500660443049799</v>
+        <v>0.3526707074731541</v>
       </c>
       <c r="P10">
-        <v>0.2500660443049799</v>
+        <v>0.3526707074731541</v>
       </c>
       <c r="Q10">
-        <v>72.97283864129943</v>
+        <v>57.679763112</v>
       </c>
       <c r="R10">
-        <v>656.755547771695</v>
+        <v>519.117868008</v>
       </c>
       <c r="S10">
-        <v>0.01126821432504957</v>
+        <v>0.0156547150956322</v>
       </c>
       <c r="T10">
-        <v>0.01126821432504957</v>
+        <v>0.01565471509563219</v>
       </c>
     </row>
   </sheetData>
